--- a/biology/Zoologie/Diplograptidae/Diplograptidae.xlsx
+++ b/biology/Zoologie/Diplograptidae/Diplograptidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplograptidae constituent une famille de graptolites, des animaux vivant en colonies et rattachés à l'embranchement des Hemichordata et à l'ordre des Graptoloidea. 
 </t>
@@ -511,11 +523,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 octobre 2019)[2], la famille fait partie de l'ordre des Graptoloidea, du sous-ordre des †Axonophora Frech, 1897 et de l'infra-ordre des †Diplograptina Lapworth, 1880. Elle comporte 2 sous-familles : les †Diplograptinae Lapworth, 1873 et les †Orthograptinae Mitchell, 1987. 
-Selon Paleobiology Database                   (13 octobre 2019)[3], la famille fait partie de l'ordre des †Diplograptoidea Lapworth 1880. Elle comporte les sous-familles †Climacograptinae, †Diplograptinae, †Orthograptinae et †Peiragraptinae et les genres †Amplexograptus, †Anticostia, †Corynoides, †Diplograptus, †Expansograptus, †Parareteograptus et †Rectograptus. 
-Selon World Register of Marine Species                               (13 octobre 2019)[4], la famille fait partie de l'ordre des Graptoloidea et comporte les 3 genres †Appendispinograptus, †Climacograptus et †Diplacanthograptus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 octobre 2019), la famille fait partie de l'ordre des Graptoloidea, du sous-ordre des †Axonophora Frech, 1897 et de l'infra-ordre des †Diplograptina Lapworth, 1880. Elle comporte 2 sous-familles : les †Diplograptinae Lapworth, 1873 et les †Orthograptinae Mitchell, 1987. 
+Selon Paleobiology Database                   (13 octobre 2019), la famille fait partie de l'ordre des †Diplograptoidea Lapworth 1880. Elle comporte les sous-familles †Climacograptinae, †Diplograptinae, †Orthograptinae et †Peiragraptinae et les genres †Amplexograptus, †Anticostia, †Corynoides, †Diplograptus, †Expansograptus, †Parareteograptus et †Rectograptus. 
+Selon World Register of Marine Species                               (13 octobre 2019), la famille fait partie de l'ordre des Graptoloidea et comporte les 3 genres †Appendispinograptus, †Climacograptus et †Diplacanthograptus.
 </t>
         </is>
       </c>
